--- a/spliced/falling/2023-03-28_19-35-57/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-35-57/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0723671913146972</v>
+        <v>-0.4100122451782226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398813247680664</v>
+        <v>0.3157248497009277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261114835739135</v>
+        <v>-0.4111190438270569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4648051261901855</v>
+        <v>-0.3957743644714355</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3905239105224609</v>
+        <v>0.3475203514099121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.401032954454422</v>
+        <v>-0.2738307416439056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03253173828125</v>
+        <v>-0.5445261001586914</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1416168212890625</v>
+        <v>0.2971320152282715</v>
       </c>
       <c r="C4" t="n">
-        <v>1.499733686447144</v>
+        <v>-0.1380582749843597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7911763191223145</v>
+        <v>-0.0015645027160644</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2393178939819336</v>
+        <v>0.2662014961242676</v>
       </c>
       <c r="C5" t="n">
-        <v>1.927771806716919</v>
+        <v>-0.2422323226928711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6626334190368652</v>
+        <v>-0.0723671913146972</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8235597610473633</v>
+        <v>0.398813247680664</v>
       </c>
       <c r="C6" t="n">
-        <v>2.30325984954834</v>
+        <v>0.0261114835739135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.474053382873535</v>
+        <v>0.4648051261901855</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7457327842712402</v>
+        <v>0.3905239105224609</v>
       </c>
       <c r="C7" t="n">
-        <v>2.726755142211914</v>
+        <v>0.401032954454422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.78084135055542</v>
+        <v>0.03253173828125</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.402418613433838</v>
+        <v>-0.1416168212890625</v>
       </c>
       <c r="C8" t="n">
-        <v>2.212388038635254</v>
+        <v>1.499733686447144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.69126033782959</v>
+        <v>-0.7911763191223145</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.209368467330933</v>
+        <v>-0.2393178939819336</v>
       </c>
       <c r="C9" t="n">
-        <v>1.650809645652771</v>
+        <v>1.927771806716919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.679105281829834</v>
+        <v>-0.6626334190368652</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.972231864929199</v>
+        <v>-0.8235597610473633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8967219591140747</v>
+        <v>2.30325984954834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-8.219106674194336</v>
+        <v>-1.474053382873535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5375771522521973</v>
+        <v>-0.7457327842712402</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9215919971466064</v>
+        <v>2.726755142211914</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.41851043701172</v>
+        <v>-2.78084135055542</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.289778709411621</v>
+        <v>-1.402418613433838</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.24878120422363</v>
+        <v>2.212388038635254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.613844871520996</v>
+        <v>-3.69126033782959</v>
       </c>
       <c r="B13" t="n">
-        <v>6.058750152587891</v>
+        <v>-3.209368467330933</v>
       </c>
       <c r="C13" t="n">
-        <v>5.673562526702881</v>
+        <v>1.650809645652771</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.281689643859863</v>
+        <v>-5.679105281829834</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.930487871170044</v>
+        <v>-4.972231864929199</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.143074989318848</v>
+        <v>0.8967219591140747</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.9546890258789062</v>
+        <v>-8.219106674194336</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6401574611663818</v>
+        <v>0.5375771522521973</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1838119029998779</v>
+        <v>-0.9215919971466064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0202217102050781</v>
+        <v>26.41851043701172</v>
       </c>
       <c r="B16" t="n">
-        <v>1.288838624954224</v>
+        <v>-1.289778709411621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7679400444030762</v>
+        <v>-10.24878120422363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.244831085205078</v>
+        <v>-7.613844871520996</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.71762228012085</v>
+        <v>6.058750152587891</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7488219738006592</v>
+        <v>5.673562526702881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.553339958190918</v>
+        <v>-1.281689643859863</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4797818660736084</v>
+        <v>-2.930487871170044</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4767866134643554</v>
+        <v>-2.143074989318848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.489582061767578</v>
+        <v>-0.9546890258789062</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4650382995605469</v>
+        <v>0.6401574611663818</v>
       </c>
       <c r="C19" t="n">
-        <v>2.65714955329895</v>
+        <v>-0.1838119029998779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2150793075561523</v>
+        <v>0.0202217102050781</v>
       </c>
       <c r="B20" t="n">
-        <v>1.105870723724365</v>
+        <v>1.288838624954224</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.261855840682983</v>
+        <v>0.7679400444030762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.244831085205078</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.71762228012085</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7488219738006592</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.553339958190918</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4797818660736084</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4767866134643554</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.489582061767578</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4650382995605469</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.65714955329895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2150793075561523</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.105870723724365</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.261855840682983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>-0.7989382743835449</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>-0.0554313659667968</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>-2.816707372665405</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.732457160949707</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4553084373474121</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.453210830688477</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.187225341796875</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2255609035491943</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6162976026535034</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.9302024841308594</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2106423377990722</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1286094188690185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.170828819274902</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.4288506507873535</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3933718204498291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.678126335144043</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.426605224609375</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0270633697509765</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.493565559387207</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1020381450653076</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0103309154510498</v>
       </c>
     </row>
   </sheetData>
